--- a/Fase3_ValueBettingAnalysis/RFOutliers/PercentagePointDifference/40pointDifferenceOutliers.xlsx
+++ b/Fase3_ValueBettingAnalysis/RFOutliers/PercentagePointDifference/40pointDifferenceOutliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE55"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,21 @@
           <t>DiffA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffH</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffD</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,6 +707,15 @@
       <c r="AE2" t="n">
         <v>0.4040108899837748</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-51.90010167351434</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-97.58981553010676</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>86.39170556714635</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -795,6 +819,15 @@
       <c r="AE3" t="n">
         <v>-0.03967760507638383</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-57.32645951489692</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>287.096723363749</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-48.91092777633671</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,6 +931,15 @@
       <c r="AE4" t="n">
         <v>-0.01880668402282254</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-48.8675943464962</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>361.617662327788</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-34.70195773167776</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1001,6 +1043,15 @@
       <c r="AE5" t="n">
         <v>0.4525788968908916</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-55.43497944830346</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-97.28888191024893</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>113.2767544729894</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1104,6 +1155,15 @@
       <c r="AE6" t="n">
         <v>-0.4154383566173795</v>
       </c>
+      <c r="AF6" t="n">
+        <v>297.2426567661552</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-39.95324432670635</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-70.12614584001814</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1207,6 +1267,15 @@
       <c r="AE7" t="n">
         <v>0.4414422143921952</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-74.41953772382104</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-99.2015519437948</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>88.89725920383202</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1310,6 +1379,15 @@
       <c r="AE8" t="n">
         <v>0.415426432724942</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-50.26310708970111</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-93.15888735561074</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>100.9717023984234</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1413,6 +1491,15 @@
       <c r="AE9" t="n">
         <v>0.4644278878161187</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-79.17767271021205</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-99.71653866122526</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>95.36053128008093</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1516,6 +1603,15 @@
       <c r="AE10" t="n">
         <v>-0.16234252528849</v>
       </c>
+      <c r="AF10" t="n">
+        <v>119.609124678489</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-85.72633369544513</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-43.18254708084305</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1619,6 +1715,15 @@
       <c r="AE11" t="n">
         <v>-0.03725999667592839</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-46.05504366360918</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>302.7470728340421</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-57.10498843733968</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1722,6 +1827,15 @@
       <c r="AE12" t="n">
         <v>0.4161577484564533</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-61.39920882456503</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-96.4195271444751</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>86.33738272175945</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1825,6 +1939,15 @@
       <c r="AE13" t="n">
         <v>-0.1858116982332139</v>
       </c>
+      <c r="AF13" t="n">
+        <v>98.9756183992872</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-78.5875556711774</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-60.76100716032872</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1928,6 +2051,15 @@
       <c r="AE14" t="n">
         <v>0.5301792133758065</v>
       </c>
+      <c r="AF14" t="n">
+        <v>-52.32509961036609</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-95.24576148641415</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>263.7469173021236</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2031,6 +2163,15 @@
       <c r="AE15" t="n">
         <v>0.4114171252548904</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-55.53234164883083</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-97.15989156617248</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>90.7701320277076</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2134,6 +2275,15 @@
       <c r="AE16" t="n">
         <v>-0.1703714754809225</v>
       </c>
+      <c r="AF16" t="n">
+        <v>175.3999881813241</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-87.90405829085796</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-34.77724563420044</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2237,6 +2387,15 @@
       <c r="AE17" t="n">
         <v>-0.183066457061569</v>
       </c>
+      <c r="AF17" t="n">
+        <v>107.9591426255079</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-77.36979350309902</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-55.45132920175801</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2340,6 +2499,15 @@
       <c r="AE18" t="n">
         <v>0.4381779081053789</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-78.28136624722875</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-99.74657869633396</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>85.50957981360364</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2443,6 +2611,15 @@
       <c r="AE19" t="n">
         <v>-0.1960636583378158</v>
       </c>
+      <c r="AF19" t="n">
+        <v>138.9871468295266</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-86.65713848571956</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-49.17905674161597</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2546,6 +2723,15 @@
       <c r="AE20" t="n">
         <v>0.4318243815391829</v>
       </c>
+      <c r="AF20" t="n">
+        <v>-60.04502814235732</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-97.63680144871775</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>94.24387304966955</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2649,6 +2835,15 @@
       <c r="AE21" t="n">
         <v>-0.2391409753938101</v>
       </c>
+      <c r="AF21" t="n">
+        <v>105.6965171060294</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-59.54681432936161</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-73.10979893504617</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2752,6 +2947,15 @@
       <c r="AE22" t="n">
         <v>0.4207146133786804</v>
       </c>
+      <c r="AF22" t="n">
+        <v>-48.8852818513051</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-96.46789209254248</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>100.4733068687319</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2855,6 +3059,15 @@
       <c r="AE23" t="n">
         <v>-0.1950710765142886</v>
       </c>
+      <c r="AF23" t="n">
+        <v>101.9488745860522</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-74.31088232370074</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-61.82214608892822</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2958,6 +3171,15 @@
       <c r="AE24" t="n">
         <v>-0.2195610267127383</v>
       </c>
+      <c r="AF24" t="n">
+        <v>123.68118328378</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-67.58694234277672</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-58.42901392539643</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3061,6 +3283,15 @@
       <c r="AE25" t="n">
         <v>-0.2232584256993226</v>
       </c>
+      <c r="AF25" t="n">
+        <v>146.5234716979549</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-80.0057786273415</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>-54.34597730153485</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3164,6 +3395,15 @@
       <c r="AE26" t="n">
         <v>-0.224097540402948</v>
       </c>
+      <c r="AF26" t="n">
+        <v>95.47641516571547</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-66.07631608110428</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>-73.6702533205727</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3267,6 +3507,15 @@
       <c r="AE27" t="n">
         <v>-0.003100946901880716</v>
       </c>
+      <c r="AF27" t="n">
+        <v>-54.0723228706853</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>347.0919181327585</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-5.2586761258918</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3370,6 +3619,15 @@
       <c r="AE28" t="n">
         <v>-0.1856589525345212</v>
       </c>
+      <c r="AF28" t="n">
+        <v>87.19301138463291</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-77.63590823047998</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>-72.03627389672666</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3473,6 +3731,15 @@
       <c r="AE29" t="n">
         <v>0.437318169238248</v>
       </c>
+      <c r="AF29" t="n">
+        <v>-60.33475779221983</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-95.3210332834991</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>101.1811333791903</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3576,6 +3843,15 @@
       <c r="AE30" t="n">
         <v>0.4880971311991099</v>
       </c>
+      <c r="AF30" t="n">
+        <v>-69.49234409628524</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-97.82358241730164</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>117.5150917573361</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3679,6 +3955,15 @@
       <c r="AE31" t="n">
         <v>-0.04733919004623966</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-51.23506270766318</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>272.4970487704772</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-61.99927132765495</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3782,6 +4067,15 @@
       <c r="AE32" t="n">
         <v>-0.1598723495104228</v>
       </c>
+      <c r="AF32" t="n">
+        <v>105.0387143643483</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-91.41417323222443</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>-51.80692431351167</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3885,6 +4179,15 @@
       <c r="AE33" t="n">
         <v>-0.1658763664241349</v>
       </c>
+      <c r="AF33" t="n">
+        <v>115.5778312302107</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-82.99647486487044</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>-45.95699280647778</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3988,6 +4291,15 @@
       <c r="AE34" t="n">
         <v>-0.1846968055293385</v>
       </c>
+      <c r="AF34" t="n">
+        <v>104.1791303355968</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-77.26084096393375</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-58.27720876565381</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4091,6 +4403,15 @@
       <c r="AE35" t="n">
         <v>0.4519597803001512</v>
       </c>
+      <c r="AF35" t="n">
+        <v>-58.47415737126597</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-98.16313722267321</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>107.4901301688611</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4194,6 +4515,15 @@
       <c r="AE36" t="n">
         <v>0.4166786051757463</v>
       </c>
+      <c r="AF36" t="n">
+        <v>-43.37953835626338</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-91.75481625326279</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>114.9853671698789</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4297,6 +4627,15 @@
       <c r="AE37" t="n">
         <v>-0.1662531915762117</v>
       </c>
+      <c r="AF37" t="n">
+        <v>108.7561388962994</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-81.94436424714728</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>-48.76326879106927</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4400,6 +4739,15 @@
       <c r="AE38" t="n">
         <v>0.4142938244600609</v>
       </c>
+      <c r="AF38" t="n">
+        <v>-74.91738596120082</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-98.44248066693315</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>78.42360303124197</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4503,6 +4851,15 @@
       <c r="AE39" t="n">
         <v>-0.1970728388921144</v>
       </c>
+      <c r="AF39" t="n">
+        <v>111.7077811571133</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-89.44357749504157</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>-63.60470765388716</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4606,6 +4963,15 @@
       <c r="AE40" t="n">
         <v>0.4613042216667969</v>
       </c>
+      <c r="AF40" t="n">
+        <v>-45.37240470361274</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-92.3686726592627</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>175.5031085102575</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4709,6 +5075,15 @@
       <c r="AE41" t="n">
         <v>-0.2343676891116353</v>
       </c>
+      <c r="AF41" t="n">
+        <v>221.2555305680633</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-89.30272818881478</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>-45.32312849351278</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4812,6 +5187,15 @@
       <c r="AE42" t="n">
         <v>-0.1992530865657078</v>
       </c>
+      <c r="AF42" t="n">
+        <v>103.0466215470877</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-72.5207251952904</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>-59.91205198268045</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4915,6 +5299,15 @@
       <c r="AE43" t="n">
         <v>0.4756338799010651</v>
       </c>
+      <c r="AF43" t="n">
+        <v>-78.83151747629937</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>-98.48575037609216</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>102.8134653629396</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5018,6 +5411,15 @@
       <c r="AE44" t="n">
         <v>0.4277881467040727</v>
       </c>
+      <c r="AF44" t="n">
+        <v>-60.0969553558015</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-99.03297900041713</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>91.17225398871186</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5121,6 +5523,15 @@
       <c r="AE45" t="n">
         <v>-0.2181367544841404</v>
       </c>
+      <c r="AF45" t="n">
+        <v>118.7868161606132</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>-83.3671158774581</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>-64.9933770491398</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5224,6 +5635,15 @@
       <c r="AE46" t="n">
         <v>-0.2031999636678162</v>
       </c>
+      <c r="AF46" t="n">
+        <v>114.815372998166</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-80.21791313558781</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-60.0039722644254</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5327,6 +5747,15 @@
       <c r="AE47" t="n">
         <v>-0.1761491608690944</v>
       </c>
+      <c r="AF47" t="n">
+        <v>96.95144306707111</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-81.0358605606548</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-59.64608366866742</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5430,6 +5859,15 @@
       <c r="AE48" t="n">
         <v>0.4177167983958178</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-75.58117955120824</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-97.95921304968613</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>79.38339745029937</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5533,6 +5971,15 @@
       <c r="AE49" t="n">
         <v>0.4649957977288255</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-68.54772340412755</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-97.86062881094594</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>105.0290368005452</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5636,6 +6083,15 @@
       <c r="AE50" t="n">
         <v>0.4409084904313311</v>
       </c>
+      <c r="AF50" t="n">
+        <v>-53.47729909509362</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-88.62411525604851</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>134.5072090274775</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5739,6 +6195,15 @@
       <c r="AE51" t="n">
         <v>-0.0138624132875654</v>
       </c>
+      <c r="AF51" t="n">
+        <v>-51.88595807595679</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>353.1666944795061</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-24.7620870669973</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5842,6 +6307,15 @@
       <c r="AE52" t="n">
         <v>0.4021961734453414</v>
       </c>
+      <c r="AF52" t="n">
+        <v>-65.78054783006529</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-99.53457451999842</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>75.78006210322921</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5945,6 +6419,15 @@
       <c r="AE53" t="n">
         <v>-0.2349127512065071</v>
       </c>
+      <c r="AF53" t="n">
+        <v>127.9788286045901</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-64.22909107652764</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-61.43768593190985</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6048,6 +6531,15 @@
       <c r="AE54" t="n">
         <v>0.5415994450008064</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-65.19330562944532</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-92.47009024131722</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>187.8231032142664</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6150,6 +6642,15 @@
       </c>
       <c r="AE55" t="n">
         <v>-0.01644881480483695</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-48.86405806171241</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>310.5165413280852</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-32.00734663526992</v>
       </c>
     </row>
   </sheetData>
